--- a/data/GoodCSVs/LawrenceLessig.xlsx
+++ b/data/GoodCSVs/LawrenceLessig.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>state</t>
   </si>
@@ -216,6 +211,18 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>January_15</t>
+  </si>
+  <si>
+    <t>February_15</t>
+  </si>
+  <si>
+    <t>March_15</t>
+  </si>
+  <si>
+    <t>April_15</t>
   </si>
 </sst>
 </file>
@@ -534,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,16 +549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,31 +575,55 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -608,32 +639,56 @@
       <c r="E2" s="4">
         <v>10350</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>350</v>
       </c>
-      <c r="G2" s="4">
+      <c r="O2" s="4">
         <v>4425</v>
       </c>
-      <c r="H2" s="4">
+      <c r="P2" s="4">
         <v>9600</v>
       </c>
-      <c r="I2" s="4">
+      <c r="Q2" s="4">
         <v>666</v>
       </c>
-      <c r="J2" s="4">
+      <c r="R2" s="4">
         <v>1930</v>
       </c>
-      <c r="K2" s="4">
+      <c r="S2" s="4">
         <v>9254</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>38075</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -650,31 +705,55 @@
         <v>500</v>
       </c>
       <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
         <v>500</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>250</v>
       </c>
-      <c r="I3" s="5">
+      <c r="Q3" s="5">
         <v>630</v>
       </c>
-      <c r="J3" s="5">
+      <c r="R3" s="5">
         <v>1050</v>
       </c>
-      <c r="K3" s="4">
+      <c r="S3" s="4">
         <v>2544</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>5724</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -690,32 +769,56 @@
       <c r="E4" s="4">
         <v>5050</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>15925</v>
       </c>
-      <c r="G4" s="4">
+      <c r="O4" s="4">
         <v>450</v>
       </c>
-      <c r="H4" s="4">
+      <c r="P4" s="4">
         <v>5175</v>
       </c>
-      <c r="I4" s="4">
+      <c r="Q4" s="4">
         <v>1150</v>
       </c>
-      <c r="J4" s="4">
+      <c r="R4" s="4">
         <v>6970</v>
       </c>
-      <c r="K4" s="4">
+      <c r="S4" s="4">
         <v>23627</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>62423</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -731,32 +834,56 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>250</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <v>3750</v>
       </c>
-      <c r="I5" s="4">
+      <c r="Q5" s="4">
         <v>5725</v>
       </c>
-      <c r="J5" s="4">
+      <c r="R5" s="4">
         <v>2725</v>
       </c>
-      <c r="K5" s="4">
+      <c r="S5" s="4">
         <v>1631</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>14331</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -772,32 +899,56 @@
       <c r="E6" s="4">
         <v>97986</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>257788.37</v>
       </c>
-      <c r="G6" s="4">
+      <c r="O6" s="4">
         <v>28000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="P6" s="4">
         <v>94725</v>
       </c>
-      <c r="I6" s="4">
+      <c r="Q6" s="4">
         <v>25085</v>
       </c>
-      <c r="J6" s="4">
+      <c r="R6" s="4">
         <v>187630</v>
       </c>
-      <c r="K6" s="4">
+      <c r="S6" s="4">
         <v>235469.8</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>944295.16999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -813,32 +964,56 @@
       <c r="E7" s="4">
         <v>5700</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>9925</v>
       </c>
-      <c r="G7" s="4">
+      <c r="O7" s="4">
         <v>6561</v>
       </c>
-      <c r="H7" s="4">
+      <c r="P7" s="4">
         <v>9420</v>
       </c>
-      <c r="I7" s="4">
+      <c r="Q7" s="4">
         <v>5708.5</v>
       </c>
-      <c r="J7" s="4">
+      <c r="R7" s="4">
         <v>9150</v>
       </c>
-      <c r="K7" s="4">
+      <c r="S7" s="4">
         <v>38662</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>85876.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -854,32 +1029,56 @@
       <c r="E8" s="4">
         <v>22300</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>5016</v>
       </c>
-      <c r="G8" s="4">
+      <c r="O8" s="4">
         <v>15450</v>
       </c>
-      <c r="H8" s="4">
+      <c r="P8" s="4">
         <v>21500</v>
       </c>
-      <c r="I8" s="4">
+      <c r="Q8" s="4">
         <v>19857</v>
       </c>
-      <c r="J8" s="4">
+      <c r="R8" s="4">
         <v>10407</v>
       </c>
-      <c r="K8" s="4">
+      <c r="S8" s="4">
         <v>49092</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>144622</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,32 +1094,56 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>1000</v>
       </c>
-      <c r="G9" s="4">
+      <c r="O9" s="4">
         <v>3700</v>
       </c>
-      <c r="H9" s="4">
+      <c r="P9" s="4">
         <v>2700</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
         <v>750</v>
       </c>
-      <c r="K9" s="4">
+      <c r="S9" s="4">
         <v>3150</v>
       </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>11300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -936,32 +1159,56 @@
       <c r="E10" s="4">
         <v>1250</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>16023</v>
       </c>
-      <c r="G10" s="4">
+      <c r="O10" s="4">
         <v>11770</v>
       </c>
-      <c r="H10" s="4">
+      <c r="P10" s="4">
         <v>550</v>
       </c>
-      <c r="I10" s="4">
+      <c r="Q10" s="4">
         <v>3350</v>
       </c>
-      <c r="J10" s="4">
+      <c r="R10" s="4">
         <v>7341</v>
       </c>
-      <c r="K10" s="4">
+      <c r="S10" s="4">
         <v>31587</v>
       </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>76071</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,32 +1224,56 @@
       <c r="E11" s="4">
         <v>90846</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
         <v>35252</v>
       </c>
-      <c r="G11" s="4">
+      <c r="O11" s="4">
         <v>26050</v>
       </c>
-      <c r="H11" s="4">
+      <c r="P11" s="4">
         <v>93350</v>
       </c>
-      <c r="I11" s="4">
+      <c r="Q11" s="4">
         <v>51736</v>
       </c>
-      <c r="J11" s="4">
+      <c r="R11" s="4">
         <v>67175.37</v>
       </c>
-      <c r="K11" s="4">
+      <c r="S11" s="4">
         <v>129367</v>
       </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>508176.37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1018,32 +1289,56 @@
       <c r="E12" s="4">
         <v>10067</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>8210</v>
       </c>
-      <c r="G12" s="4">
+      <c r="O12" s="4">
         <v>3260</v>
       </c>
-      <c r="H12" s="4">
+      <c r="P12" s="4">
         <v>11610</v>
       </c>
-      <c r="I12" s="4">
+      <c r="Q12" s="4">
         <v>5177</v>
       </c>
-      <c r="J12" s="4">
+      <c r="R12" s="4">
         <v>6675</v>
       </c>
-      <c r="K12" s="4">
+      <c r="S12" s="4">
         <v>61782</v>
       </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>111987</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1059,32 +1354,56 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>500</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
         <v>5050</v>
       </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>5550</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1100,32 +1419,56 @@
       <c r="E14" s="4">
         <v>1500</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>1150</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
         <v>1200</v>
       </c>
-      <c r="K14" s="4">
+      <c r="S14" s="4">
         <v>6391</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14">
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>15641</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1141,32 +1484,56 @@
       <c r="E15" s="4">
         <v>16350</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>110200</v>
       </c>
-      <c r="G15" s="4">
+      <c r="O15" s="4">
         <v>18350</v>
       </c>
-      <c r="H15" s="4">
+      <c r="P15" s="4">
         <v>55635</v>
       </c>
-      <c r="I15" s="4">
+      <c r="Q15" s="4">
         <v>6785</v>
       </c>
-      <c r="J15" s="4">
+      <c r="R15" s="4">
         <v>55526</v>
       </c>
-      <c r="K15" s="4">
+      <c r="S15" s="4">
         <v>87779</v>
       </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15">
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>362475</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1182,32 +1549,56 @@
       <c r="E16" s="4">
         <v>5750</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>1850</v>
       </c>
-      <c r="G16" s="4">
+      <c r="O16" s="4">
         <v>5400</v>
       </c>
-      <c r="H16" s="4">
+      <c r="P16" s="4">
         <v>3200</v>
       </c>
-      <c r="I16" s="4">
+      <c r="Q16" s="4">
         <v>23475</v>
       </c>
-      <c r="J16" s="4">
+      <c r="R16" s="4">
         <v>4175</v>
       </c>
-      <c r="K16" s="4">
+      <c r="S16" s="4">
         <v>10906</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>55256</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1223,32 +1614,56 @@
       <c r="E17" s="4">
         <v>10916</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
         <v>3200</v>
       </c>
-      <c r="G17" s="4">
+      <c r="O17" s="4">
         <v>375</v>
       </c>
-      <c r="H17" s="4">
+      <c r="P17" s="4">
         <v>5070</v>
       </c>
-      <c r="I17" s="4">
+      <c r="Q17" s="4">
         <v>8150</v>
       </c>
-      <c r="J17" s="4">
+      <c r="R17" s="4">
         <v>1275</v>
       </c>
-      <c r="K17" s="4">
+      <c r="S17" s="4">
         <v>7600</v>
       </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>39286</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1264,32 +1679,56 @@
       <c r="E18" s="4">
         <v>2000</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>3100</v>
       </c>
-      <c r="G18" s="4">
+      <c r="O18" s="4">
         <v>326</v>
       </c>
-      <c r="H18" s="4">
+      <c r="P18" s="4">
         <v>2050</v>
       </c>
-      <c r="I18" s="4">
+      <c r="Q18" s="4">
         <v>2750</v>
       </c>
-      <c r="J18" s="4">
+      <c r="R18" s="4">
         <v>1400</v>
       </c>
-      <c r="K18" s="4">
+      <c r="S18" s="4">
         <v>12927</v>
       </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>24553</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1305,32 +1744,56 @@
       <c r="E19" s="4">
         <v>24150</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>16500</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <v>1100</v>
       </c>
-      <c r="I19" s="4">
+      <c r="Q19" s="4">
         <v>12610</v>
       </c>
-      <c r="J19" s="4">
+      <c r="R19" s="4">
         <v>575</v>
       </c>
-      <c r="K19" s="4">
+      <c r="S19" s="4">
         <v>10775</v>
       </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>73810</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1346,32 +1809,56 @@
       <c r="E20" s="4">
         <v>500</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
         <v>2100</v>
       </c>
-      <c r="G20" s="4">
+      <c r="O20" s="4">
         <v>150</v>
       </c>
-      <c r="H20" s="4">
+      <c r="P20" s="4">
         <v>1891</v>
       </c>
-      <c r="I20" s="4">
+      <c r="Q20" s="4">
         <v>375</v>
       </c>
-      <c r="J20" s="4">
+      <c r="R20" s="4">
         <v>3875</v>
       </c>
-      <c r="K20" s="4">
+      <c r="S20" s="4">
         <v>37600</v>
       </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>49691</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1387,32 +1874,56 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
         <v>4050</v>
       </c>
-      <c r="G21" s="4">
+      <c r="O21" s="4">
         <v>31</v>
       </c>
-      <c r="H21" s="4">
+      <c r="P21" s="4">
         <v>200</v>
       </c>
-      <c r="I21" s="4">
+      <c r="Q21" s="4">
         <v>350</v>
       </c>
-      <c r="J21" s="4">
+      <c r="R21" s="4">
         <v>250</v>
       </c>
-      <c r="K21" s="4">
+      <c r="S21" s="4">
         <v>5650</v>
       </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>10531</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1428,32 +1939,56 @@
       <c r="E22" s="4">
         <v>13967</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>11881</v>
       </c>
-      <c r="G22" s="4">
+      <c r="O22" s="4">
         <v>11800</v>
       </c>
-      <c r="H22" s="4">
+      <c r="P22" s="4">
         <v>1960</v>
       </c>
-      <c r="I22" s="4">
+      <c r="Q22" s="4">
         <v>4500</v>
       </c>
-      <c r="J22" s="4">
+      <c r="R22" s="4">
         <v>7285</v>
       </c>
-      <c r="K22" s="4">
+      <c r="S22" s="4">
         <v>57132</v>
       </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>111475</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1469,32 +2004,56 @@
       <c r="E23" s="4">
         <v>26316</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>10910</v>
       </c>
-      <c r="G23" s="4">
+      <c r="O23" s="4">
         <v>15965</v>
       </c>
-      <c r="H23" s="4">
+      <c r="P23" s="4">
         <v>63695</v>
       </c>
-      <c r="I23" s="4">
+      <c r="Q23" s="4">
         <v>17340</v>
       </c>
-      <c r="J23" s="4">
+      <c r="R23" s="4">
         <v>28590</v>
       </c>
-      <c r="K23" s="4">
+      <c r="S23" s="4">
         <v>83072</v>
       </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>257938</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1510,32 +2069,56 @@
       <c r="E24" s="4">
         <v>2600</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
         <v>51072</v>
       </c>
-      <c r="G24" s="4">
+      <c r="O24" s="4">
         <v>27950</v>
       </c>
-      <c r="H24" s="4">
+      <c r="P24" s="4">
         <v>114500</v>
       </c>
-      <c r="I24" s="4">
+      <c r="Q24" s="4">
         <v>14620</v>
       </c>
-      <c r="J24" s="4">
+      <c r="R24" s="4">
         <v>9445</v>
       </c>
-      <c r="K24" s="4">
+      <c r="S24" s="4">
         <v>61730</v>
       </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>297667</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1551,32 +2134,56 @@
       <c r="E25" s="4">
         <v>6500</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
         <v>2470</v>
       </c>
-      <c r="G25" s="4">
+      <c r="O25" s="4">
         <v>5800</v>
       </c>
-      <c r="H25" s="4">
+      <c r="P25" s="4">
         <v>850</v>
       </c>
-      <c r="I25" s="4">
+      <c r="Q25" s="4">
         <v>5000</v>
       </c>
-      <c r="J25" s="4">
+      <c r="R25" s="4">
         <v>5770</v>
       </c>
-      <c r="K25" s="4">
+      <c r="S25" s="4">
         <v>24660</v>
       </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>53050</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1592,32 +2199,56 @@
       <c r="E26" s="4">
         <v>2700</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <v>1431</v>
       </c>
-      <c r="G26" s="4">
+      <c r="O26" s="4">
         <v>900</v>
       </c>
-      <c r="H26" s="4">
+      <c r="P26" s="4">
         <v>27930</v>
       </c>
-      <c r="I26" s="4">
+      <c r="Q26" s="4">
         <v>12812</v>
       </c>
-      <c r="J26" s="4">
+      <c r="R26" s="4">
         <v>6260</v>
       </c>
-      <c r="K26" s="4">
+      <c r="S26" s="4">
         <v>22084</v>
       </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>76817</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1633,32 +2264,56 @@
       <c r="E27" s="4">
         <v>6956</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>11350</v>
       </c>
-      <c r="G27" s="4">
+      <c r="O27" s="4">
         <v>75</v>
       </c>
-      <c r="H27" s="4">
+      <c r="P27" s="4">
         <v>1000</v>
       </c>
-      <c r="I27" s="4">
+      <c r="Q27" s="4">
         <v>1900</v>
       </c>
-      <c r="J27" s="4">
+      <c r="R27" s="4">
         <v>11150</v>
       </c>
-      <c r="K27" s="4">
+      <c r="S27" s="4">
         <v>12562</v>
       </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>50893</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1674,32 +2329,56 @@
       <c r="E28" s="4">
         <v>2750</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>1000</v>
       </c>
-      <c r="G28" s="4">
+      <c r="O28" s="4">
         <v>100</v>
       </c>
-      <c r="H28" s="4">
+      <c r="P28" s="4">
         <v>300</v>
       </c>
-      <c r="I28" s="4">
+      <c r="Q28" s="4">
         <v>1950</v>
       </c>
-      <c r="J28" s="4">
+      <c r="R28" s="4">
         <v>750</v>
       </c>
-      <c r="K28" s="4">
+      <c r="S28" s="4">
         <v>7550</v>
       </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>14400</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1715,32 +2394,56 @@
       <c r="E29" s="4">
         <v>500</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
         <v>100</v>
       </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
         <v>250</v>
       </c>
-      <c r="I29" s="4">
+      <c r="Q29" s="4">
         <v>150</v>
       </c>
-      <c r="J29" s="4">
+      <c r="R29" s="4">
         <v>50</v>
       </c>
-      <c r="K29" s="4">
+      <c r="S29" s="4">
         <v>3850</v>
       </c>
-      <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>4900</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1756,32 +2459,56 @@
       <c r="E30" s="4">
         <v>2000</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
         <v>6</v>
       </c>
-      <c r="G30" s="4">
+      <c r="O30" s="4">
         <v>550</v>
       </c>
-      <c r="H30" s="4">
+      <c r="P30" s="4">
         <v>1275</v>
       </c>
-      <c r="I30" s="4">
+      <c r="Q30" s="4">
         <v>250</v>
       </c>
-      <c r="J30" s="4">
+      <c r="R30" s="4">
         <v>11325</v>
       </c>
-      <c r="K30" s="4">
+      <c r="S30" s="4">
         <v>8800</v>
       </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>25956</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1797,32 +2524,56 @@
       <c r="E31" s="4">
         <v>9900</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
         <v>4476</v>
       </c>
-      <c r="G31" s="4">
+      <c r="O31" s="4">
         <v>6175</v>
       </c>
-      <c r="H31" s="4">
+      <c r="P31" s="4">
         <v>20370</v>
       </c>
-      <c r="I31" s="4">
+      <c r="Q31" s="4">
         <v>8651</v>
       </c>
-      <c r="J31" s="4">
+      <c r="R31" s="4">
         <v>15400</v>
       </c>
-      <c r="K31" s="4">
+      <c r="S31" s="4">
         <v>24006</v>
       </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>91678</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1838,32 +2589,56 @@
       <c r="E32" s="4">
         <v>5616</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
         <v>9184</v>
       </c>
-      <c r="G32" s="4">
+      <c r="O32" s="4">
         <v>6550</v>
       </c>
-      <c r="H32" s="4">
+      <c r="P32" s="4">
         <v>3625</v>
       </c>
-      <c r="I32" s="4">
+      <c r="Q32" s="4">
         <v>6490</v>
       </c>
-      <c r="J32" s="4">
+      <c r="R32" s="4">
         <v>17541</v>
       </c>
-      <c r="K32" s="4">
+      <c r="S32" s="4">
         <v>33779</v>
       </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32">
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>83535</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1879,32 +2654,56 @@
       <c r="E33" s="4">
         <v>2700</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
         <v>1000</v>
       </c>
-      <c r="G33" s="4">
+      <c r="O33" s="4">
         <v>250</v>
       </c>
-      <c r="H33" s="4">
+      <c r="P33" s="4">
         <v>450</v>
       </c>
-      <c r="I33" s="4">
+      <c r="Q33" s="4">
         <v>1050</v>
       </c>
-      <c r="J33" s="4">
+      <c r="R33" s="4">
         <v>200</v>
       </c>
-      <c r="K33" s="4">
+      <c r="S33" s="4">
         <v>16477</v>
       </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <v>22627</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1920,32 +2719,56 @@
       <c r="E34" s="4">
         <v>45732</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
         <v>83972</v>
       </c>
-      <c r="G34" s="4">
+      <c r="O34" s="4">
         <v>69389</v>
       </c>
-      <c r="H34" s="4">
+      <c r="P34" s="4">
         <v>58031</v>
       </c>
-      <c r="I34" s="4">
+      <c r="Q34" s="4">
         <v>29181</v>
       </c>
-      <c r="J34" s="4">
+      <c r="R34" s="4">
         <v>38494</v>
       </c>
-      <c r="K34" s="4">
+      <c r="S34" s="4">
         <v>209870</v>
       </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>537290</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1961,32 +2784,56 @@
       <c r="E35" s="4">
         <v>14100</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
         <v>10050</v>
       </c>
-      <c r="G35" s="4">
+      <c r="O35" s="4">
         <v>2250</v>
       </c>
-      <c r="H35" s="4">
+      <c r="P35" s="4">
         <v>2560</v>
       </c>
-      <c r="I35" s="4">
+      <c r="Q35" s="4">
         <v>483</v>
       </c>
-      <c r="J35" s="4">
+      <c r="R35" s="4">
         <v>10025</v>
       </c>
-      <c r="K35" s="4">
+      <c r="S35" s="4">
         <v>35668</v>
       </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>77636</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -2002,32 +2849,56 @@
       <c r="E36" s="4">
         <v>1000</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
         <v>526</v>
       </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
         <v>260</v>
       </c>
-      <c r="I36" s="4">
+      <c r="Q36" s="4">
         <v>250</v>
       </c>
-      <c r="J36" s="4">
+      <c r="R36" s="4">
         <v>500</v>
       </c>
-      <c r="K36" s="4">
+      <c r="S36" s="4">
         <v>2900</v>
       </c>
-      <c r="L36" s="4">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>5686</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2043,32 +2914,56 @@
       <c r="E37" s="4">
         <v>837830.5</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
         <v>904873</v>
       </c>
-      <c r="G37" s="4">
+      <c r="O37" s="4">
         <v>182756</v>
       </c>
-      <c r="H37" s="4">
+      <c r="P37" s="4">
         <v>453827.35</v>
       </c>
-      <c r="I37" s="4">
+      <c r="Q37" s="4">
         <v>669368.80000000005</v>
       </c>
-      <c r="J37" s="4">
+      <c r="R37" s="4">
         <v>141698</v>
       </c>
-      <c r="K37" s="4">
+      <c r="S37" s="4">
         <v>350469</v>
       </c>
-      <c r="L37" s="4">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>3952083.6500000004</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2084,32 +2979,56 @@
       <c r="E38" s="4">
         <v>4700</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
         <v>6000</v>
       </c>
-      <c r="G38" s="4">
+      <c r="O38" s="4">
         <v>350</v>
       </c>
-      <c r="H38" s="4">
+      <c r="P38" s="4">
         <v>1000</v>
       </c>
-      <c r="I38" s="4">
+      <c r="Q38" s="4">
         <v>150</v>
       </c>
-      <c r="J38" s="4">
+      <c r="R38" s="4">
         <v>350</v>
       </c>
-      <c r="K38" s="4">
+      <c r="S38" s="4">
         <v>12951</v>
       </c>
-      <c r="L38" s="4">
-        <v>0</v>
-      </c>
-      <c r="M38">
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>26801</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2125,32 +3044,56 @@
       <c r="E39" s="4">
         <v>1000</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
         <v>3200</v>
       </c>
-      <c r="G39" s="4">
+      <c r="O39" s="4">
         <v>325</v>
       </c>
-      <c r="H39" s="4">
+      <c r="P39" s="4">
         <v>150</v>
       </c>
-      <c r="I39" s="4">
+      <c r="Q39" s="4">
         <v>75</v>
       </c>
-      <c r="J39" s="4">
+      <c r="R39" s="4">
         <v>725</v>
       </c>
-      <c r="K39" s="4">
+      <c r="S39" s="4">
         <v>21750</v>
       </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39">
+      <c r="T39" s="4">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>28975</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2166,32 +3109,56 @@
       <c r="E40" s="4">
         <v>14528.25</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
         <v>34550</v>
       </c>
-      <c r="G40" s="4">
+      <c r="O40" s="4">
         <v>53611</v>
       </c>
-      <c r="H40" s="4">
+      <c r="P40" s="4">
         <v>5925</v>
       </c>
-      <c r="I40" s="4">
+      <c r="Q40" s="4">
         <v>7260</v>
       </c>
-      <c r="J40" s="4">
+      <c r="R40" s="4">
         <v>117225</v>
       </c>
-      <c r="K40" s="4">
+      <c r="S40" s="4">
         <v>106889.60000000001</v>
       </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40">
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <v>347638.85</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2207,32 +3174,56 @@
       <c r="E41" s="4">
         <v>250</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
         <v>3000</v>
       </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
         <v>5400</v>
       </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
         <v>2700</v>
       </c>
-      <c r="K41" s="4">
+      <c r="S41" s="4">
         <v>4800</v>
       </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41">
         <v>16400</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2248,32 +3239,56 @@
       <c r="E42" s="4">
         <v>3301</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
         <v>2050</v>
       </c>
-      <c r="G42" s="4">
+      <c r="O42" s="4">
         <v>6150</v>
       </c>
-      <c r="H42" s="4">
+      <c r="P42" s="4">
         <v>8350</v>
       </c>
-      <c r="I42" s="4">
+      <c r="Q42" s="4">
         <v>2250</v>
       </c>
-      <c r="J42" s="4">
+      <c r="R42" s="4">
         <v>3950</v>
       </c>
-      <c r="K42" s="4">
+      <c r="S42" s="4">
         <v>28826</v>
       </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>58452</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -2289,32 +3304,56 @@
       <c r="E43" s="4">
         <v>0</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
         <v>2000</v>
       </c>
-      <c r="G43" s="4">
+      <c r="O43" s="4">
         <v>250</v>
       </c>
-      <c r="H43" s="4">
+      <c r="P43" s="4">
         <v>650</v>
       </c>
-      <c r="I43" s="4">
+      <c r="Q43" s="4">
         <v>100</v>
       </c>
-      <c r="J43" s="4">
+      <c r="R43" s="4">
         <v>250</v>
       </c>
-      <c r="K43" s="4">
+      <c r="S43" s="4">
         <v>3375</v>
       </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43">
         <v>6625</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -2330,32 +3369,56 @@
       <c r="E44" s="4">
         <v>2700</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
         <v>12500</v>
       </c>
-      <c r="G44" s="4">
+      <c r="O44" s="4">
         <v>4050</v>
       </c>
-      <c r="H44" s="4">
+      <c r="P44" s="4">
         <v>9456</v>
       </c>
-      <c r="I44" s="4">
+      <c r="Q44" s="4">
         <v>61125</v>
       </c>
-      <c r="J44" s="4">
+      <c r="R44" s="4">
         <v>4300</v>
       </c>
-      <c r="K44" s="4">
+      <c r="S44" s="4">
         <v>40651</v>
       </c>
-      <c r="L44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>136782</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,32 +3434,56 @@
       <c r="E45" s="4">
         <v>27758</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
         <v>43966</v>
       </c>
-      <c r="G45" s="4">
+      <c r="O45" s="4">
         <v>82556</v>
       </c>
-      <c r="H45" s="4">
+      <c r="P45" s="4">
         <v>20142</v>
       </c>
-      <c r="I45" s="4">
+      <c r="Q45" s="4">
         <v>10185</v>
       </c>
-      <c r="J45" s="4">
+      <c r="R45" s="4">
         <v>11000</v>
       </c>
-      <c r="K45" s="4">
+      <c r="S45" s="4">
         <v>128024</v>
       </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45">
+      <c r="T45" s="4">
+        <v>0</v>
+      </c>
+      <c r="U45">
         <v>333612</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
@@ -2412,32 +3499,56 @@
       <c r="E46" s="4">
         <v>2500</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
         <v>2700</v>
       </c>
-      <c r="G46" s="4">
+      <c r="O46" s="4">
         <v>3000</v>
       </c>
-      <c r="H46" s="4">
+      <c r="P46" s="4">
         <v>100</v>
       </c>
-      <c r="I46" s="4">
+      <c r="Q46" s="4">
         <v>10600</v>
       </c>
-      <c r="J46" s="4">
+      <c r="R46" s="4">
         <v>6800</v>
       </c>
-      <c r="K46" s="4">
+      <c r="S46" s="4">
         <v>13141</v>
       </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46">
+      <c r="T46" s="4">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>39341</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>58</v>
       </c>
@@ -2453,32 +3564,56 @@
       <c r="E47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4">
         <v>50</v>
       </c>
-      <c r="K47" s="4">
+      <c r="S47" s="4">
         <v>4650</v>
       </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="T47" s="4">
+        <v>0</v>
+      </c>
+      <c r="U47">
         <v>4700</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -2494,32 +3629,56 @@
       <c r="E48" s="4">
         <v>20614</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
         <v>41390</v>
       </c>
-      <c r="G48" s="4">
+      <c r="O48" s="4">
         <v>44682</v>
       </c>
-      <c r="H48" s="4">
+      <c r="P48" s="4">
         <v>15485</v>
       </c>
-      <c r="I48" s="4">
+      <c r="Q48" s="4">
         <v>14062</v>
       </c>
-      <c r="J48" s="4">
+      <c r="R48" s="4">
         <v>18847</v>
       </c>
-      <c r="K48" s="4">
+      <c r="S48" s="4">
         <v>83742</v>
       </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="T48" s="4">
+        <v>0</v>
+      </c>
+      <c r="U48">
         <v>272274</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -2535,32 +3694,56 @@
       <c r="E49" s="4">
         <v>8600</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
         <v>4750</v>
       </c>
-      <c r="G49" s="4">
+      <c r="O49" s="4">
         <v>4010</v>
       </c>
-      <c r="H49" s="4">
+      <c r="P49" s="4">
         <v>2685</v>
       </c>
-      <c r="I49" s="4">
+      <c r="Q49" s="4">
         <v>3486</v>
       </c>
-      <c r="J49" s="4">
+      <c r="R49" s="4">
         <v>3791</v>
       </c>
-      <c r="K49" s="4">
+      <c r="S49" s="4">
         <v>24051</v>
       </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="T49" s="4">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>54573</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -2576,32 +3759,56 @@
       <c r="E50" s="4">
         <v>250</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
         <v>1200</v>
       </c>
-      <c r="G50" s="4">
+      <c r="O50" s="4">
         <v>1000</v>
       </c>
-      <c r="H50" s="4">
+      <c r="P50" s="4">
         <v>2700</v>
       </c>
-      <c r="I50" s="4">
+      <c r="Q50" s="4">
         <v>4200</v>
       </c>
-      <c r="J50" s="4">
+      <c r="R50" s="4">
         <v>1300</v>
       </c>
-      <c r="K50" s="4">
+      <c r="S50" s="4">
         <v>5696</v>
       </c>
-      <c r="L50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50">
+      <c r="T50" s="4">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>21421</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2617,32 +3824,56 @@
       <c r="E51" s="4">
         <v>1700</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
         <v>400</v>
       </c>
-      <c r="G51" s="4">
+      <c r="O51" s="4">
         <v>150</v>
       </c>
-      <c r="H51" s="4">
+      <c r="P51" s="4">
         <v>2250</v>
       </c>
-      <c r="I51" s="4">
+      <c r="Q51" s="4">
         <v>250</v>
       </c>
-      <c r="J51" s="4">
+      <c r="R51" s="4">
         <v>4450</v>
       </c>
-      <c r="K51" s="4">
+      <c r="S51" s="4">
         <v>14741</v>
       </c>
-      <c r="L51" s="4">
-        <v>0</v>
-      </c>
-      <c r="M51">
+      <c r="T51" s="4">
+        <v>0</v>
+      </c>
+      <c r="U51">
         <v>29341</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -2658,28 +3889,52 @@
       <c r="E52" s="4">
         <v>2000</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
         <v>850</v>
       </c>
-      <c r="G52" s="4">
+      <c r="O52" s="4">
         <v>300</v>
       </c>
-      <c r="H52" s="4">
+      <c r="P52" s="4">
         <v>100</v>
       </c>
-      <c r="I52" s="4">
+      <c r="Q52" s="4">
         <v>50</v>
       </c>
-      <c r="J52" s="4">
+      <c r="R52" s="4">
         <v>1250</v>
       </c>
-      <c r="K52" s="4">
+      <c r="S52" s="4">
         <v>8950</v>
       </c>
-      <c r="L52" s="4">
-        <v>0</v>
-      </c>
-      <c r="M52">
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>17200</v>
       </c>
     </row>
